--- a/周数据/《实施上线数据统计表》-高阳.xlsx
+++ b/周数据/《实施上线数据统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -621,11 +621,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -754,119 +754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -884,6 +771,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -892,7 +878,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,7 +979,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1039,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,91 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,19 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,10 +1585,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1609,17 +1641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,6 +1655,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,41 +1682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1690,10 +1690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,133 +1702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3497,7 +3497,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="79">
         <v>1</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="G38" s="82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="83">
         <f t="shared" si="6"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="I38" s="104">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9">

--- a/周数据/《实施上线数据统计表》-高阳.xlsx
+++ b/周数据/《实施上线数据统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -466,6 +466,30 @@
     <t>柳总</t>
   </si>
   <si>
+    <t>天津森宇餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>津婆婆</t>
+  </si>
+  <si>
+    <t>刘总</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>津婆婆(双街店)</t>
+  </si>
+  <si>
+    <t>张总</t>
+  </si>
+  <si>
+    <t>津婆婆（塘沽弘泽诚店）</t>
+  </si>
+  <si>
+    <t>三千粉宜兴大统华店</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -622,8 +646,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -754,11 +778,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,14 +816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,16 +829,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,14 +869,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +885,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,47 +915,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -979,7 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,19 +1027,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,18 +1063,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1057,19 +1075,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,6 +1609,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1600,6 +1633,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1611,17 +1653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,27 +1674,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,6 +1697,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1690,10 +1714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,133 +1726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2509,7 +2533,7 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -3500,18 +3524,18 @@
         <v>2</v>
       </c>
       <c r="D38" s="79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="80">
         <v>0</v>
       </c>
       <c r="F38" s="81">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" s="82">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H38" s="83">
         <f t="shared" si="6"/>
@@ -3519,7 +3543,7 @@
       </c>
       <c r="I38" s="104">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -16526,8 +16550,8 @@
   <sheetPr/>
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -18004,7 +18028,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>22</v>
       </c>
       <c r="B33" s="41">
@@ -18051,72 +18075,187 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="12">
+        <v>43250</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="10">
+        <v>76171310</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N34" s="1">
+        <v>17749551369</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="12">
+        <v>43250</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="10">
+        <v>76171752</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="1">
+        <v>13302089818</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="12">
+        <v>43250</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="10">
+        <v>76171757</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36" s="1">
+        <v>17749551369</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12">
+        <v>43250</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="10">
+        <v>76157132</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
@@ -22590,12 +22729,13 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D24:D25"/>
@@ -22607,7 +22747,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5 O12 O20 O3:O4 O6:O7 O8:O9 O10:O11 O13:O17 O18:O19 O21:O32 O33:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:C1048576">
       <formula1>"SaaS,SaaS+微信,单店库存,供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22623,7 +22763,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -22645,19 +22785,19 @@
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22671,16 +22811,16 @@
         <v>43087</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -22694,37 +22834,37 @@
         <v>43092</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C4" s="19">
         <v>43098</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -22738,16 +22878,16 @@
         <v>43102</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -22755,22 +22895,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C6" s="19">
         <v>43123</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -22782,16 +22922,16 @@
         <v>43123</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="G7" s="26" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22799,22 +22939,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C8" s="19">
         <v>43137</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -22828,16 +22968,16 @@
         <v>43189</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -22851,16 +22991,16 @@
         <v>43194</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -22874,16 +23014,16 @@
         <v>43203</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22897,16 +23037,16 @@
         <v>43206</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -22918,79 +23058,79 @@
         <v>43207</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C14" s="19">
         <v>43209</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C15" s="19">
         <v>43209</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C16" s="19">
         <v>43211</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -22998,22 +23138,22 @@
         <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C17" s="12">
         <v>43236</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -23021,22 +23161,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C18" s="12">
         <v>43249</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -23691,16 +23831,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -23714,10 +23854,10 @@
         <v>43084</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -23727,10 +23867,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -23740,10 +23880,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -23753,10 +23893,10 @@
         <v>43100</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -23770,10 +23910,10 @@
         <v>43101</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -23783,10 +23923,10 @@
         <v>43120</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -23800,10 +23940,10 @@
         <v>43163</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -23817,10 +23957,10 @@
         <v>43197</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -23832,10 +23972,10 @@
         <v>43204</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -23847,10 +23987,10 @@
         <v>43211</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -23862,10 +24002,10 @@
         <v>43220</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -23879,10 +24019,10 @@
         <v>43221</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -23894,10 +24034,10 @@
         <v>43225</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -23909,10 +24049,10 @@
         <v>43246</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -23924,10 +24064,10 @@
         <v>43247</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《实施上线数据统计表》-高阳.xlsx
+++ b/周数据/《实施上线数据统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>第22周</t>
+  </si>
+  <si>
+    <t>第23周</t>
   </si>
   <si>
     <t>周次</t>
@@ -645,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="36">
@@ -785,15 +788,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +836,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,44 +844,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +858,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -885,15 +867,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,19 +896,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1003,13 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,13 +1036,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,13 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,25 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,37 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,6 +1133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,11 +1612,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,73 +1704,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,10 +1717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1726,133 +1729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2533,8 +2536,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3524,18 +3527,18 @@
         <v>2</v>
       </c>
       <c r="D38" s="79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="80">
         <v>0</v>
       </c>
       <c r="F38" s="81">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="82">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H38" s="83">
         <f t="shared" si="6"/>
@@ -3543,30 +3546,38 @@
       </c>
       <c r="I38" s="104">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="70"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80"/>
+      <c r="B39" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="78">
+        <v>2</v>
+      </c>
+      <c r="D39" s="79">
+        <v>0</v>
+      </c>
+      <c r="E39" s="80">
+        <v>0</v>
+      </c>
       <c r="F39" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="104" t="e">
+      <c r="I39" s="104">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:9">
@@ -16550,8 +16561,8 @@
   <sheetPr/>
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:O37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -16571,51 +16582,51 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" ht="28.5" spans="1:15">
+    <row r="1" s="33" customFormat="1" ht="27" spans="1:15">
       <c r="A1" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -16626,43 +16637,43 @@
         <v>43102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>76120259</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1">
         <v>15189553449</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1">
         <v>18018066077</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16671,43 +16682,43 @@
         <v>43102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1">
         <v>76118738</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1">
         <v>15189553449</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="1">
         <v>13528537677</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16716,43 +16727,43 @@
         <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1">
         <v>76121072</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
         <v>15189553449</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1">
         <v>18226974951</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -16761,43 +16772,43 @@
         <v>43105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1">
         <v>76112895</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>15189553449</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1">
         <v>15077880787</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16808,43 +16819,43 @@
         <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1">
         <v>76123362</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1">
         <v>15189553449</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1">
         <v>13337727177</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -16855,43 +16866,43 @@
         <v>43120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1">
         <v>76126655</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1">
         <v>15189553449</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1">
         <v>13851488518</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16902,43 +16913,43 @@
         <v>43130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1">
         <v>76129193</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1">
         <v>15189553449</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1">
         <v>18651618831</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16947,43 +16958,43 @@
         <v>43132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1">
         <v>76128311</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1">
         <v>15189553449</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1">
         <v>17351787770</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16994,43 +17005,43 @@
         <v>43137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>76128381</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1">
         <v>15189553449</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1">
         <v>13665586009</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -17041,43 +17052,43 @@
         <v>43165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>76132691</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1">
         <v>15189553449</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="1">
         <v>15851877626</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:15">
@@ -17088,43 +17099,43 @@
         <v>43182</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1">
         <v>76137879</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1">
         <v>15189553449</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" s="1">
         <v>15951994226</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -17135,207 +17146,207 @@
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>76135775</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1">
         <v>15189553449</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" s="1">
         <v>13057568768</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="7"/>
       <c r="B14" s="39"/>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>76123026</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1">
         <v>15189553449</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N14" s="1">
         <v>13057568768</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="7"/>
       <c r="B15" s="39"/>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>76138561</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1">
         <v>15189553449</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N15" s="1">
         <v>18651827008</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="7"/>
       <c r="B16" s="39"/>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>76138565</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1">
         <v>15189553449</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N16" s="1">
         <v>13915975966</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="11"/>
       <c r="B17" s="40"/>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1">
         <v>76135771</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1">
         <v>15189553449</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N17" s="1">
         <v>13057651361</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -17346,43 +17357,43 @@
         <v>43198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>76155860</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" s="1">
         <v>15189553449</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N18" s="1">
         <v>15005160358</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -17393,43 +17404,43 @@
         <v>43199</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>76152878</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" s="1">
         <v>15189553449</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N19" s="1">
         <v>15071236167</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -17440,43 +17451,43 @@
         <v>43210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>76159290</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="1">
         <v>15189553449</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N20" s="1">
         <v>17342701977</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -17487,43 +17498,43 @@
         <v>43213</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
         <v>76159011</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="1">
         <v>15189553449</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>15805191899</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -17532,46 +17543,46 @@
         <v>43215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="1">
         <v>76138830</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" s="1">
         <v>15189553449</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N22" s="1">
         <v>18020275119</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -17580,46 +17591,46 @@
         <v>43215</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1">
         <v>76132999</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23" s="1">
         <v>15189553449</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N23" s="1">
         <v>18020275119</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -17628,43 +17639,43 @@
         <v>43218</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1">
         <v>76161101</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24" s="1">
         <v>15189553449</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N24" s="1">
         <v>18502527718</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -17673,41 +17684,41 @@
         <v>43218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1">
         <v>76159399</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25" s="1">
         <v>15189553449</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N25" s="1">
         <v>18751981936</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -17716,43 +17727,43 @@
         <v>43218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" s="1">
         <v>76157763</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26" s="1">
         <v>15189553449</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N26" s="1">
         <v>13263366335</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -17761,43 +17772,43 @@
         <v>43219</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" s="1">
         <v>76160160</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="1">
         <v>15189553449</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1">
         <v>15051626196</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -17808,43 +17819,43 @@
         <v>43224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1">
         <v>76162769</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28" s="1">
         <v>15189553449</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N28" s="1">
         <v>13912196802</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -17853,43 +17864,43 @@
         <v>43226</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1">
         <v>76167212</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29" s="1">
         <v>15189553449</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N29" s="1">
         <v>13057581993</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -17898,43 +17909,43 @@
         <v>43229</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1">
         <v>76162973</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" s="1">
         <v>15189553449</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N30" s="1">
         <v>15895867930</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -17943,43 +17954,43 @@
         <v>43229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1">
         <v>76162958</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31" s="1">
         <v>15189553449</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N31" s="1">
         <v>15952031799</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -17988,43 +17999,43 @@
         <v>43229</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1">
         <v>76167603</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K32" s="1">
         <v>15189553449</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N32" s="1">
         <v>15961157058</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -18035,43 +18046,43 @@
         <v>43248</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="10">
         <v>76170928</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" s="1">
         <v>15189553449</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N33" s="1">
         <v>18652090997</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -18080,43 +18091,43 @@
         <v>43250</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="10">
         <v>76171310</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34" s="1">
         <v>15189553449</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N34" s="1">
         <v>17749551369</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -18125,43 +18136,43 @@
         <v>43250</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35" s="10">
         <v>76171752</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35" s="1">
         <v>15189553449</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N35" s="1">
         <v>13302089818</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -18170,43 +18181,43 @@
         <v>43250</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G36" s="10">
         <v>76171757</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36" s="1">
         <v>15189553449</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N36" s="1">
         <v>17749551369</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -18215,46 +18226,46 @@
         <v>43250</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G37" s="10">
         <v>76157132</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37" s="1">
         <v>15189553449</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N37" s="1">
         <v>18020275119</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -22782,22 +22793,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22805,22 +22816,22 @@
         <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="19">
         <v>43087</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -22828,43 +22839,43 @@
         <v>52</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="19">
         <v>43092</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" s="19">
         <v>43098</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -22872,22 +22883,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="19">
         <v>43102</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -22895,43 +22906,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="19">
         <v>43123</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10"/>
       <c r="B7" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="19">
         <v>43123</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -22939,22 +22950,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="19">
         <v>43137</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -22962,22 +22973,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="19">
         <v>43189</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -22985,22 +22996,22 @@
         <v>14</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="19">
         <v>43194</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -23008,22 +23019,22 @@
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="19">
         <v>43203</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23031,106 +23042,106 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="19">
         <v>43206</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="19">
         <v>43207</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="19">
         <v>43209</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="19">
         <v>43209</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="19">
         <v>43211</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -23138,22 +23149,22 @@
         <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="12">
         <v>43236</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -23161,22 +23172,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" s="12">
         <v>43249</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -23831,16 +23842,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -23848,16 +23859,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>43084</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -23867,10 +23878,10 @@
         <v>43091</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -23880,10 +23891,10 @@
         <v>43099</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -23893,10 +23904,10 @@
         <v>43100</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -23904,16 +23915,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="9">
         <v>43101</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -23923,10 +23934,10 @@
         <v>43120</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -23934,16 +23945,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9">
         <v>43163</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -23951,61 +23962,61 @@
         <v>25</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9">
         <v>43197</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="9">
         <v>43204</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9">
         <v>43211</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="9">
         <v>43220</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24013,61 +24024,61 @@
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9">
         <v>43221</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="9">
         <v>43225</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="12">
         <v>43246</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="12">
         <v>43247</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《实施上线数据统计表》-高阳.xlsx
+++ b/周数据/《实施上线数据统计表》-高阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -547,6 +547,27 @@
     <t>十一分休闲餐厅（云食集店）</t>
   </si>
   <si>
+    <t>临泉</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾临泉店</t>
+  </si>
+  <si>
+    <t>赵总</t>
+  </si>
+  <si>
+    <t>聊城</t>
+  </si>
+  <si>
+    <t>津婆婆（山东冠县步行街店）</t>
+  </si>
+  <si>
+    <t>承德</t>
+  </si>
+  <si>
+    <t>津婆婆（承德双桥店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -688,10 +709,10 @@
     <t>天荟茶饮设备迁移实施培训/上线实施</t>
   </si>
   <si>
-    <t>未调休</t>
+    <t>鲜货俚火锅/售后</t>
   </si>
   <si>
-    <t>鲜货俚火锅/售后</t>
+    <t>未调休</t>
   </si>
   <si>
     <t>七颜披萨/上线</t>
@@ -708,17 +729,26 @@
   <si>
     <t>槐店王婆大虾界首店/驻店</t>
   </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾临泉店/上线实施</t>
+  </si>
+  <si>
+    <t>槐店王婆大虾临泉店/驻店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -848,15 +878,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,9 +906,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,14 +921,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -908,16 +928,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,9 +944,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,6 +974,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -969,15 +997,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,7 +1007,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,19 +1102,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1138,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,6 +1169,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,55 +1210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,17 +1708,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1703,16 +1727,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1734,17 +1758,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1753,25 +1766,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1783,10 +1813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1795,31 +1825,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1828,100 +1858,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1959,22 +1989,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2055,9 +2076,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2069,6 +2087,18 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2620,8 +2650,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3787,20 +3817,26 @@
       <c r="B44" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
+      <c r="C44" s="84">
+        <v>0</v>
+      </c>
+      <c r="D44" s="85">
+        <v>3</v>
+      </c>
+      <c r="E44" s="86">
+        <v>0</v>
+      </c>
       <c r="F44" s="87">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="88">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="89" t="e">
+        <v>-3</v>
+      </c>
+      <c r="H44" s="89">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I44" s="110" t="e">
         <f t="shared" si="7"/>
@@ -16673,20 +16709,20 @@
   <sheetPr/>
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.4833333333333" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.4833333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="15" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" style="18" customWidth="1"/>
-    <col min="8" max="8" width="34.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="15" style="35" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" style="15" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="35" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
@@ -16694,50 +16730,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="39" t="s">
+    <row r="1" s="34" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="37" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16745,7 +16781,7 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="39">
         <v>43102</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -16757,7 +16793,7 @@
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="1">
@@ -16790,7 +16826,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8"/>
-      <c r="B3" s="42">
+      <c r="B3" s="39">
         <v>43102</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16802,7 +16838,7 @@
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="1">
@@ -16835,7 +16871,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8"/>
-      <c r="B4" s="42">
+      <c r="B4" s="39">
         <v>43105</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -16847,7 +16883,7 @@
       <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="1">
@@ -16879,8 +16915,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="42">
+      <c r="A5" s="11"/>
+      <c r="B5" s="39">
         <v>43105</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -16892,7 +16928,7 @@
       <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="1">
@@ -16924,10 +16960,10 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="39">
         <v>43112</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -16939,7 +16975,7 @@
       <c r="E6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="1">
@@ -16971,10 +17007,10 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <v>43120</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -16986,7 +17022,7 @@
       <c r="E7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="1">
@@ -17018,10 +17054,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="39">
         <v>43130</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -17033,7 +17069,7 @@
       <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="1">
@@ -17065,8 +17101,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="42">
+      <c r="A9" s="2"/>
+      <c r="B9" s="39">
         <v>43132</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -17078,7 +17114,7 @@
       <c r="E9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="1">
@@ -17110,10 +17146,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="39">
         <v>43137</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -17125,7 +17161,7 @@
       <c r="E10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="22" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="1">
@@ -17157,10 +17193,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="39">
         <v>43165</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -17172,7 +17208,7 @@
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="1">
@@ -17204,22 +17240,22 @@
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:15">
-      <c r="A12" s="11">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="39">
         <v>43182</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="1">
@@ -17254,7 +17290,7 @@
       <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="40">
         <v>43185</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -17266,7 +17302,7 @@
       <c r="E13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="1">
@@ -17299,7 +17335,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
@@ -17307,7 +17343,7 @@
       <c r="E14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="1">
@@ -17340,7 +17376,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
@@ -17348,7 +17384,7 @@
       <c r="E15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="1">
@@ -17381,7 +17417,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
@@ -17389,7 +17425,7 @@
       <c r="E16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="1">
@@ -17421,16 +17457,16 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="1">
@@ -17462,10 +17498,10 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="11">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="39">
         <v>43198</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -17477,7 +17513,7 @@
       <c r="E18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="1">
@@ -17509,10 +17545,10 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="39">
         <v>43199</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -17524,7 +17560,7 @@
       <c r="E19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="1">
@@ -17556,10 +17592,10 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="39">
         <v>43210</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -17571,7 +17607,7 @@
       <c r="E20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="1">
@@ -17606,7 +17642,7 @@
       <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="39">
         <v>43213</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -17618,7 +17654,7 @@
       <c r="E21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="1">
@@ -17651,7 +17687,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="8"/>
-      <c r="B22" s="42">
+      <c r="B22" s="39">
         <v>43215</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -17663,7 +17699,7 @@
       <c r="E22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="22" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="1">
@@ -17699,7 +17735,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="8"/>
-      <c r="B23" s="42">
+      <c r="B23" s="39">
         <v>43215</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -17711,7 +17747,7 @@
       <c r="E23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="22" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="1">
@@ -17747,7 +17783,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8"/>
-      <c r="B24" s="42">
+      <c r="B24" s="39">
         <v>43218</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -17759,7 +17795,7 @@
       <c r="E24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="1">
@@ -17792,17 +17828,17 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8"/>
-      <c r="B25" s="42">
+      <c r="B25" s="39">
         <v>43218</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="1">
@@ -17835,7 +17871,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8"/>
-      <c r="B26" s="42">
+      <c r="B26" s="39">
         <v>43218</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -17847,7 +17883,7 @@
       <c r="E26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="22" t="s">
         <v>130</v>
       </c>
       <c r="G26" s="1">
@@ -17879,8 +17915,8 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="42">
+      <c r="A27" s="11"/>
+      <c r="B27" s="39">
         <v>43219</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -17892,7 +17928,7 @@
       <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G27" s="1">
@@ -17927,7 +17963,7 @@
       <c r="A28" s="9">
         <v>18</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="39">
         <v>43224</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -17939,7 +17975,7 @@
       <c r="E28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="1">
@@ -17972,7 +18008,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8"/>
-      <c r="B29" s="42">
+      <c r="B29" s="39">
         <v>43226</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -17984,7 +18020,7 @@
       <c r="E29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G29" s="1">
@@ -18017,7 +18053,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8"/>
-      <c r="B30" s="42">
+      <c r="B30" s="39">
         <v>43229</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -18029,7 +18065,7 @@
       <c r="E30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="1">
@@ -18062,7 +18098,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8"/>
-      <c r="B31" s="42">
+      <c r="B31" s="39">
         <v>43229</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -18074,7 +18110,7 @@
       <c r="E31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G31" s="1">
@@ -18106,8 +18142,8 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="42">
+      <c r="A32" s="11"/>
+      <c r="B32" s="39">
         <v>43229</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -18119,7 +18155,7 @@
       <c r="E32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G32" s="1">
@@ -18154,7 +18190,7 @@
       <c r="A33" s="9">
         <v>22</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="43">
         <v>43248</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -18166,10 +18202,10 @@
       <c r="E33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="2">
         <v>76170928</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -18199,25 +18235,25 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="8"/>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>43250</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="2">
         <v>76171310</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="22" t="s">
         <v>154</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -18244,25 +18280,25 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="8"/>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>43250</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="2">
         <v>76171752</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -18289,25 +18325,25 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="8"/>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>43250</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="2">
         <v>76171757</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="22" t="s">
         <v>159</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -18333,26 +18369,26 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12">
         <v>43250</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="2">
         <v>76157132</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="22" t="s">
         <v>160</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -18384,25 +18420,25 @@
       <c r="A38" s="9">
         <v>25</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>43270</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="2">
         <v>76180056</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="22" t="s">
         <v>162</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -18428,26 +18464,26 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12">
         <v>43271</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="2">
         <v>76170915</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="22" t="s">
         <v>165</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -18473,28 +18509,28 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="9">
+      <c r="A40" s="44">
         <v>26</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>43278</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="2">
         <v>76183871</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="22" t="s">
         <v>169</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -18520,26 +18556,26 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13">
+      <c r="A41" s="45"/>
+      <c r="B41" s="12">
         <v>43278</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="2">
         <v>76180871</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="22" t="s">
         <v>171</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -18565,26 +18601,26 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="13">
+      <c r="A42" s="46"/>
+      <c r="B42" s="12">
         <v>43278</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="2">
         <v>76175625</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="22" t="s">
         <v>173</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -18610,65 +18646,151 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="13">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43292</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="2">
+        <v>76188907</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N43" s="1">
+        <v>15755875890</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="12">
+        <v>43293</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="2">
+        <v>76181375</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="1">
+        <v>15380441167</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="12">
+        <v>43294</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="2">
+        <v>76187759</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="1">
+        <v>15189553449</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N45" s="1">
+        <v>13718259936</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="25"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -18679,13 +18801,13 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="25"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -18696,13 +18818,13 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="11"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -18713,13 +18835,13 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="11"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="25"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -18730,13 +18852,13 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="11"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="25"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -18747,13 +18869,13 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="11"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="25"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -18764,13 +18886,13 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="11"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="25"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -18781,13 +18903,13 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="11"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="25"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -18798,13 +18920,13 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="11"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -18815,13 +18937,13 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="11"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="25"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -18832,13 +18954,13 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="11"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="25"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -18849,13 +18971,13 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="25"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -18866,13 +18988,13 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="25"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -18883,13 +19005,13 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="11"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="25"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -18900,13 +19022,13 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="11"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -18917,13 +19039,13 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="11"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="25"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -18934,13 +19056,13 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="11"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="25"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -18951,13 +19073,13 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="11"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="25"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -18968,13 +19090,13 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="11"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="25"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -18985,13 +19107,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="11"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="25"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -19002,13 +19124,13 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="25"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -19019,13 +19141,13 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="25"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -19036,13 +19158,13 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="11"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="25"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -19053,13 +19175,13 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="11"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="25"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -19070,13 +19192,13 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="11"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="25"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -19087,13 +19209,13 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="11"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="25"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -19104,13 +19226,13 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="25"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="22"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -19121,13 +19243,13 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="11"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="25"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -19138,13 +19260,13 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="11"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="25"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -19155,13 +19277,13 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="11"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="25"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -19172,13 +19294,13 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="11"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="25"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -19189,13 +19311,13 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="11"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="25"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -19206,13 +19328,13 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="11"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="25"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -19223,13 +19345,13 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="25"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -19240,13 +19362,13 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="11"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="25"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -19257,13 +19379,13 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="11"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="25"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -19274,13 +19396,13 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="11"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="25"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -19291,13 +19413,13 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="11"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="25"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -19308,13 +19430,13 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="11"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="25"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -19325,13 +19447,13 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="11"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="25"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="22"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -19342,13 +19464,13 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="11"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="25"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -19359,13 +19481,13 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="11"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="25"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="22"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -19376,13 +19498,13 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="11"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="25"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -19393,13 +19515,13 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="11"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="25"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -19410,13 +19532,13 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="25"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="22"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -19427,13 +19549,13 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="11"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="25"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -19444,13 +19566,13 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="11"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="25"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -19461,13 +19583,13 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="11"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="25"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -19478,13 +19600,13 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="11"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="25"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -19495,13 +19617,13 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="11"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="25"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -19512,13 +19634,13 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="11"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="25"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -19529,13 +19651,13 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="11"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="25"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -19546,13 +19668,13 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="11"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="25"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -19563,13 +19685,13 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="11"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="25"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="22"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -19580,13 +19702,13 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="11"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="25"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="22"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -19597,13 +19719,13 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="11"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="25"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -19614,13 +19736,13 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="11"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="25"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="22"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -19631,13 +19753,13 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="11"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="25"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="22"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -19648,13 +19770,13 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="11"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="25"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="22"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -19665,13 +19787,13 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="11"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="25"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="22"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -19682,13 +19804,13 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="11"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="25"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="22"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -19699,13 +19821,13 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="11"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="25"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="22"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -19716,13 +19838,13 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="11"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="25"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="22"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -19733,13 +19855,13 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="11"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="25"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="22"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -19750,13 +19872,13 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="11"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="25"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="22"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -19767,13 +19889,13 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="11"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="25"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="22"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -19784,13 +19906,13 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="11"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="25"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="22"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -19801,13 +19923,13 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="11"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="25"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="22"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -19818,13 +19940,13 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="11"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="25"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="22"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -19835,13 +19957,13 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="11"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="25"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="22"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -19852,13 +19974,13 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="11"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="25"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="22"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -19869,13 +19991,13 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="11"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="25"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="22"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -19886,13 +20008,13 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="11"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="25"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="22"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -19903,13 +20025,13 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="11"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="25"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="22"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -19920,13 +20042,13 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="11"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="25"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -19937,13 +20059,13 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="11"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="25"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="22"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -19954,13 +20076,13 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="11"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="25"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="22"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -19971,13 +20093,13 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="11"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="25"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="22"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -19988,13 +20110,13 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="11"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="25"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="22"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -20005,13 +20127,13 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="11"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="25"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="22"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -20022,13 +20144,13 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="11"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="25"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="22"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -20039,13 +20161,13 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="11"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="25"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="22"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -20056,13 +20178,13 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="11"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="25"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="22"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -20073,13 +20195,13 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="11"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="25"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="22"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -20090,13 +20212,13 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="11"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="25"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="22"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -20107,13 +20229,13 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="11"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="25"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -20124,13 +20246,13 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="11"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="25"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -20141,13 +20263,13 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="11"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="25"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="22"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -20158,13 +20280,13 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="11"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="25"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="22"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -20175,13 +20297,13 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="11"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="25"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -20192,13 +20314,13 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="11"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="25"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -20209,13 +20331,13 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="11"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="25"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="22"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -20226,13 +20348,13 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="11"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="25"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="22"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -20243,13 +20365,13 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="11"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="25"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="22"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -20260,13 +20382,13 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="11"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="25"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="22"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -20277,13 +20399,13 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="11"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="25"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="22"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -20294,13 +20416,13 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="11"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="25"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="22"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -20311,13 +20433,13 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="11"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="25"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="22"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -20328,13 +20450,13 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="11"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="25"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="22"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -20345,13 +20467,13 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="11"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="25"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="22"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -20362,13 +20484,13 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="11"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="25"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="22"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -20379,13 +20501,13 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="11"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="25"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="22"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -20396,13 +20518,13 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="11"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="25"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="22"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -20413,13 +20535,13 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="11"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="25"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="22"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -20430,13 +20552,13 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="11"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="25"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="22"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -20447,13 +20569,13 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="11"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="25"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="22"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -20464,13 +20586,13 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="11"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="25"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="22"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -20481,13 +20603,13 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="25"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="22"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -20498,13 +20620,13 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="11"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="25"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="22"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -20515,13 +20637,13 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="11"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="25"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="22"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -20532,13 +20654,13 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="11"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="25"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="22"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -20549,13 +20671,13 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="11"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="25"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="22"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -20566,13 +20688,13 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="11"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="25"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="22"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -20583,13 +20705,13 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="11"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="25"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="22"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -20600,13 +20722,13 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="11"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="25"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="22"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -20617,13 +20739,13 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="11"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="25"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="22"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -20634,13 +20756,13 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="11"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="25"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="22"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -20651,13 +20773,13 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="11"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="25"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="22"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -20668,13 +20790,13 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="11"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="25"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="22"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -20685,13 +20807,13 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="11"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="25"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="22"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -20702,13 +20824,13 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="11"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="25"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="22"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -20719,13 +20841,13 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="11"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="25"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="22"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -20736,13 +20858,13 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="11"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="25"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="22"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -20753,13 +20875,13 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="11"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="25"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="22"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -20770,13 +20892,13 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="11"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="25"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="22"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -20787,13 +20909,13 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="11"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="25"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="22"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -20804,13 +20926,13 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="11"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="25"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="22"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -20821,13 +20943,13 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="11"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="25"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="22"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -20838,13 +20960,13 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="11"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="25"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="22"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -20855,13 +20977,13 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="11"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="25"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="22"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -20872,13 +20994,13 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="11"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="25"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="22"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -20889,13 +21011,13 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="11"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="25"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="22"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -20906,13 +21028,13 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="11"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="25"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="22"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -20923,13 +21045,13 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="11"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="25"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="22"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -20940,13 +21062,13 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="11"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="25"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="22"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -20957,13 +21079,13 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="11"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="25"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="22"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -20974,13 +21096,13 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="11"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="25"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="22"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -20991,13 +21113,13 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="11"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="25"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="22"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -21008,13 +21130,13 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="11"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="25"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="22"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -21025,13 +21147,13 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="11"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="25"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="22"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -21042,13 +21164,13 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="11"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="25"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="22"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -21059,13 +21181,13 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="11"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="25"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="22"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -21076,13 +21198,13 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="11"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="25"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="22"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -21093,13 +21215,13 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="11"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="25"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="22"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -21110,13 +21232,13 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="11"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="25"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="22"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -21127,13 +21249,13 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="11"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="25"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="25"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="22"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -21144,13 +21266,13 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="11"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="25"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="22"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -21161,13 +21283,13 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="11"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="25"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="22"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -21178,13 +21300,13 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="11"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="25"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="22"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -21195,13 +21317,13 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="11"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="25"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="22"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -21212,13 +21334,13 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="11"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="25"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="25"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="22"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -21229,13 +21351,13 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="11"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="25"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="25"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="22"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -21246,13 +21368,13 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="11"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="25"/>
-      <c r="F198" s="25"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="25"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="22"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -21263,13 +21385,13 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="11"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="25"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="25"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="22"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -21280,13 +21402,13 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="11"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="25"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="22"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -21297,13 +21419,13 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="11"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="25"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="22"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -21314,13 +21436,13 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="11"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="25"/>
-      <c r="F202" s="25"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="25"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="22"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -21331,13 +21453,13 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="11"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="25"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="22"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -21348,13 +21470,13 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="11"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
-      <c r="F204" s="25"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="25"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="22"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -21365,13 +21487,13 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="11"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
-      <c r="F205" s="25"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="25"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="22"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -21382,13 +21504,13 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="11"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
-      <c r="F206" s="25"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="25"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="22"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -21399,13 +21521,13 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="11"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="25"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="22"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -21416,13 +21538,13 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="11"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="25"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="22"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -21433,13 +21555,13 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="11"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
-      <c r="F209" s="25"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="25"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="22"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -21450,13 +21572,13 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="11"/>
+      <c r="B210" s="2"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
-      <c r="F210" s="25"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="25"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="22"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -21467,13 +21589,13 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="11"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="25"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="22"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -21484,13 +21606,13 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="11"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="25"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="22"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -21501,13 +21623,13 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="11"/>
+      <c r="B213" s="2"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
-      <c r="F213" s="25"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="25"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="22"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -21518,13 +21640,13 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="11"/>
+      <c r="B214" s="2"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
-      <c r="F214" s="25"/>
-      <c r="G214" s="11"/>
-      <c r="H214" s="25"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="22"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -21535,13 +21657,13 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="11"/>
+      <c r="B215" s="2"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
-      <c r="F215" s="25"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="25"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="22"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -21552,13 +21674,13 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="11"/>
+      <c r="B216" s="2"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="11"/>
-      <c r="H216" s="25"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="22"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -21569,13 +21691,13 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="11"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="25"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="22"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -21586,13 +21708,13 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="11"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="11"/>
-      <c r="H218" s="25"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="22"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -21603,13 +21725,13 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="11"/>
+      <c r="B219" s="2"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="25"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="22"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -21620,13 +21742,13 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="11"/>
+      <c r="B220" s="2"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="25"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="22"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -21637,13 +21759,13 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="11"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="25"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="22"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -21654,13 +21776,13 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="11"/>
+      <c r="B222" s="2"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
-      <c r="F222" s="25"/>
-      <c r="G222" s="11"/>
-      <c r="H222" s="25"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="22"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -21671,13 +21793,13 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="11"/>
+      <c r="B223" s="2"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="25"/>
-      <c r="F223" s="25"/>
-      <c r="G223" s="11"/>
-      <c r="H223" s="25"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="22"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -21688,13 +21810,13 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="11"/>
+      <c r="B224" s="2"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="25"/>
-      <c r="F224" s="25"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="25"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="22"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -21705,13 +21827,13 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="11"/>
+      <c r="B225" s="2"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="25"/>
-      <c r="F225" s="25"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="25"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="22"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -21722,13 +21844,13 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="11"/>
+      <c r="B226" s="2"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="25"/>
-      <c r="F226" s="25"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="25"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="22"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -21739,13 +21861,13 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="11"/>
+      <c r="B227" s="2"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="25"/>
-      <c r="F227" s="25"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="25"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="22"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -21756,13 +21878,13 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="11"/>
+      <c r="B228" s="2"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
-      <c r="F228" s="25"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="25"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="22"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -21773,13 +21895,13 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="11"/>
+      <c r="B229" s="2"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="25"/>
-      <c r="F229" s="25"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="25"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="22"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -21790,13 +21912,13 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="11"/>
+      <c r="B230" s="2"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
-      <c r="F230" s="25"/>
-      <c r="G230" s="11"/>
-      <c r="H230" s="25"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="22"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -21807,13 +21929,13 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="11"/>
+      <c r="B231" s="2"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="25"/>
-      <c r="F231" s="25"/>
-      <c r="G231" s="11"/>
-      <c r="H231" s="25"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="22"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -21824,13 +21946,13 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="11"/>
+      <c r="B232" s="2"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
-      <c r="F232" s="25"/>
-      <c r="G232" s="11"/>
-      <c r="H232" s="25"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="22"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -21841,13 +21963,13 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="11"/>
+      <c r="B233" s="2"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="25"/>
-      <c r="F233" s="25"/>
-      <c r="G233" s="11"/>
-      <c r="H233" s="25"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="22"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -21858,13 +21980,13 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="11"/>
+      <c r="B234" s="2"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="25"/>
-      <c r="G234" s="11"/>
-      <c r="H234" s="25"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="22"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -21875,13 +21997,13 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="11"/>
+      <c r="B235" s="2"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
-      <c r="F235" s="25"/>
-      <c r="G235" s="11"/>
-      <c r="H235" s="25"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="22"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -21892,13 +22014,13 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="11"/>
+      <c r="B236" s="2"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="25"/>
-      <c r="F236" s="25"/>
-      <c r="G236" s="11"/>
-      <c r="H236" s="25"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="22"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -21909,13 +22031,13 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="11"/>
+      <c r="B237" s="2"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="25"/>
-      <c r="F237" s="25"/>
-      <c r="G237" s="11"/>
-      <c r="H237" s="25"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="22"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -21926,13 +22048,13 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="11"/>
+      <c r="B238" s="2"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="25"/>
-      <c r="F238" s="25"/>
-      <c r="G238" s="11"/>
-      <c r="H238" s="25"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
+      <c r="F238" s="22"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="22"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -21943,13 +22065,13 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="11"/>
+      <c r="B239" s="2"/>
       <c r="C239" s="1"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="25"/>
-      <c r="F239" s="25"/>
-      <c r="G239" s="11"/>
-      <c r="H239" s="25"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="22"/>
+      <c r="F239" s="22"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="22"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -21960,13 +22082,13 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="11"/>
+      <c r="B240" s="2"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="25"/>
-      <c r="F240" s="25"/>
-      <c r="G240" s="11"/>
-      <c r="H240" s="25"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="22"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -21977,13 +22099,13 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="11"/>
+      <c r="B241" s="2"/>
       <c r="C241" s="1"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
-      <c r="F241" s="25"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="25"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="22"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="22"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -21994,13 +22116,13 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="11"/>
+      <c r="B242" s="2"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="25"/>
-      <c r="F242" s="25"/>
-      <c r="G242" s="11"/>
-      <c r="H242" s="25"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="22"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="22"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -22011,13 +22133,13 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="11"/>
+      <c r="B243" s="2"/>
       <c r="C243" s="1"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="25"/>
-      <c r="F243" s="25"/>
-      <c r="G243" s="11"/>
-      <c r="H243" s="25"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="22"/>
+      <c r="F243" s="22"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="22"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -22028,13 +22150,13 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="11"/>
+      <c r="B244" s="2"/>
       <c r="C244" s="1"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
-      <c r="F244" s="25"/>
-      <c r="G244" s="11"/>
-      <c r="H244" s="25"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="22"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -22045,13 +22167,13 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="11"/>
+      <c r="B245" s="2"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
-      <c r="F245" s="25"/>
-      <c r="G245" s="11"/>
-      <c r="H245" s="25"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="22"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -22062,13 +22184,13 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="11"/>
+      <c r="B246" s="2"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
-      <c r="F246" s="25"/>
-      <c r="G246" s="11"/>
-      <c r="H246" s="25"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="22"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -22079,13 +22201,13 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="11"/>
+      <c r="B247" s="2"/>
       <c r="C247" s="1"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="25"/>
-      <c r="F247" s="25"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="25"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="22"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -22096,13 +22218,13 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="11"/>
+      <c r="B248" s="2"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
-      <c r="F248" s="25"/>
-      <c r="G248" s="11"/>
-      <c r="H248" s="25"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="22"/>
+      <c r="F248" s="22"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="22"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -22113,13 +22235,13 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="11"/>
+      <c r="B249" s="2"/>
       <c r="C249" s="1"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="25"/>
-      <c r="F249" s="25"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="25"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="22"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -22130,13 +22252,13 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="11"/>
+      <c r="B250" s="2"/>
       <c r="C250" s="1"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="25"/>
+      <c r="D250" s="22"/>
+      <c r="E250" s="22"/>
+      <c r="F250" s="22"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="22"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -22147,13 +22269,13 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="11"/>
+      <c r="B251" s="2"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="25"/>
-      <c r="F251" s="25"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="25"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="22"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -22164,13 +22286,13 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="11"/>
+      <c r="B252" s="2"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="25"/>
-      <c r="E252" s="25"/>
-      <c r="F252" s="25"/>
-      <c r="G252" s="11"/>
-      <c r="H252" s="25"/>
+      <c r="D252" s="22"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="22"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -22181,13 +22303,13 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="11"/>
+      <c r="B253" s="2"/>
       <c r="C253" s="1"/>
-      <c r="D253" s="25"/>
-      <c r="E253" s="25"/>
-      <c r="F253" s="25"/>
-      <c r="G253" s="11"/>
-      <c r="H253" s="25"/>
+      <c r="D253" s="22"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="22"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -22198,13 +22320,13 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="11"/>
+      <c r="B254" s="2"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="25"/>
-      <c r="E254" s="25"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="11"/>
-      <c r="H254" s="25"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="22"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -22215,13 +22337,13 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="11"/>
+      <c r="B255" s="2"/>
       <c r="C255" s="1"/>
-      <c r="D255" s="25"/>
-      <c r="E255" s="25"/>
-      <c r="F255" s="25"/>
-      <c r="G255" s="11"/>
-      <c r="H255" s="25"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="22"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -22232,13 +22354,13 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="11"/>
+      <c r="B256" s="2"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="25"/>
-      <c r="E256" s="25"/>
-      <c r="F256" s="25"/>
-      <c r="G256" s="11"/>
-      <c r="H256" s="25"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="22"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -22249,13 +22371,13 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="11"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="1"/>
-      <c r="D257" s="25"/>
-      <c r="E257" s="25"/>
-      <c r="F257" s="25"/>
-      <c r="G257" s="11"/>
-      <c r="H257" s="25"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="22"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -22266,13 +22388,13 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="11"/>
+      <c r="B258" s="2"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="25"/>
-      <c r="E258" s="25"/>
-      <c r="F258" s="25"/>
-      <c r="G258" s="11"/>
-      <c r="H258" s="25"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="22"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -22283,13 +22405,13 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="11"/>
+      <c r="B259" s="2"/>
       <c r="C259" s="1"/>
-      <c r="D259" s="25"/>
-      <c r="E259" s="25"/>
-      <c r="F259" s="25"/>
-      <c r="G259" s="11"/>
-      <c r="H259" s="25"/>
+      <c r="D259" s="22"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="22"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -22300,13 +22422,13 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="11"/>
+      <c r="B260" s="2"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="25"/>
-      <c r="E260" s="25"/>
-      <c r="F260" s="25"/>
-      <c r="G260" s="11"/>
-      <c r="H260" s="25"/>
+      <c r="D260" s="22"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="22"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -22317,13 +22439,13 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="11"/>
+      <c r="B261" s="2"/>
       <c r="C261" s="1"/>
-      <c r="D261" s="25"/>
-      <c r="E261" s="25"/>
-      <c r="F261" s="25"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="25"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="22"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -22334,13 +22456,13 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="11"/>
+      <c r="B262" s="2"/>
       <c r="C262" s="1"/>
-      <c r="D262" s="25"/>
-      <c r="E262" s="25"/>
-      <c r="F262" s="25"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="25"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="22"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -22351,13 +22473,13 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="11"/>
+      <c r="B263" s="2"/>
       <c r="C263" s="1"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="11"/>
-      <c r="H263" s="25"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="22"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -22368,13 +22490,13 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="11"/>
+      <c r="B264" s="2"/>
       <c r="C264" s="1"/>
-      <c r="D264" s="25"/>
-      <c r="E264" s="25"/>
-      <c r="F264" s="25"/>
-      <c r="G264" s="11"/>
-      <c r="H264" s="25"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="22"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -22385,13 +22507,13 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="11"/>
+      <c r="B265" s="2"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="25"/>
-      <c r="E265" s="25"/>
-      <c r="F265" s="25"/>
-      <c r="G265" s="11"/>
-      <c r="H265" s="25"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="22"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -22402,13 +22524,13 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="11"/>
+      <c r="B266" s="2"/>
       <c r="C266" s="1"/>
-      <c r="D266" s="25"/>
-      <c r="E266" s="25"/>
-      <c r="F266" s="25"/>
-      <c r="G266" s="11"/>
-      <c r="H266" s="25"/>
+      <c r="D266" s="22"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="22"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -22419,13 +22541,13 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="11"/>
+      <c r="B267" s="2"/>
       <c r="C267" s="1"/>
-      <c r="D267" s="25"/>
-      <c r="E267" s="25"/>
-      <c r="F267" s="25"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="25"/>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="22"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -22436,13 +22558,13 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="11"/>
+      <c r="B268" s="2"/>
       <c r="C268" s="1"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="25"/>
-      <c r="F268" s="25"/>
-      <c r="G268" s="11"/>
-      <c r="H268" s="25"/>
+      <c r="D268" s="22"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="22"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -22453,13 +22575,13 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="11"/>
+      <c r="B269" s="2"/>
       <c r="C269" s="1"/>
-      <c r="D269" s="25"/>
-      <c r="E269" s="25"/>
-      <c r="F269" s="25"/>
-      <c r="G269" s="11"/>
-      <c r="H269" s="25"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="22"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -22470,13 +22592,13 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="11"/>
+      <c r="B270" s="2"/>
       <c r="C270" s="1"/>
-      <c r="D270" s="25"/>
-      <c r="E270" s="25"/>
-      <c r="F270" s="25"/>
-      <c r="G270" s="11"/>
-      <c r="H270" s="25"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="22"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -22487,13 +22609,13 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="11"/>
+      <c r="B271" s="2"/>
       <c r="C271" s="1"/>
-      <c r="D271" s="25"/>
-      <c r="E271" s="25"/>
-      <c r="F271" s="25"/>
-      <c r="G271" s="11"/>
-      <c r="H271" s="25"/>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="22"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -22504,13 +22626,13 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="11"/>
+      <c r="B272" s="2"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="25"/>
-      <c r="E272" s="25"/>
-      <c r="F272" s="25"/>
-      <c r="G272" s="11"/>
-      <c r="H272" s="25"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="22"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -22521,13 +22643,13 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="11"/>
+      <c r="B273" s="2"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="25"/>
-      <c r="E273" s="25"/>
-      <c r="F273" s="25"/>
-      <c r="G273" s="11"/>
-      <c r="H273" s="25"/>
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="22"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -22538,13 +22660,13 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="11"/>
+      <c r="B274" s="2"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="25"/>
-      <c r="E274" s="25"/>
-      <c r="F274" s="25"/>
-      <c r="G274" s="11"/>
-      <c r="H274" s="25"/>
+      <c r="D274" s="22"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="22"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -22555,13 +22677,13 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="11"/>
+      <c r="B275" s="2"/>
       <c r="C275" s="1"/>
-      <c r="D275" s="25"/>
-      <c r="E275" s="25"/>
-      <c r="F275" s="25"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="25"/>
+      <c r="D275" s="22"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="22"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -22572,13 +22694,13 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="11"/>
+      <c r="B276" s="2"/>
       <c r="C276" s="1"/>
-      <c r="D276" s="25"/>
-      <c r="E276" s="25"/>
-      <c r="F276" s="25"/>
-      <c r="G276" s="11"/>
-      <c r="H276" s="25"/>
+      <c r="D276" s="22"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="22"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -22589,13 +22711,13 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="11"/>
+      <c r="B277" s="2"/>
       <c r="C277" s="1"/>
-      <c r="D277" s="25"/>
-      <c r="E277" s="25"/>
-      <c r="F277" s="25"/>
-      <c r="G277" s="11"/>
-      <c r="H277" s="25"/>
+      <c r="D277" s="22"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="22"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -22606,13 +22728,13 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="11"/>
+      <c r="B278" s="2"/>
       <c r="C278" s="1"/>
-      <c r="D278" s="25"/>
-      <c r="E278" s="25"/>
-      <c r="F278" s="25"/>
-      <c r="G278" s="11"/>
-      <c r="H278" s="25"/>
+      <c r="D278" s="22"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="22"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -22623,13 +22745,13 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="11"/>
+      <c r="B279" s="2"/>
       <c r="C279" s="1"/>
-      <c r="D279" s="25"/>
-      <c r="E279" s="25"/>
-      <c r="F279" s="25"/>
-      <c r="G279" s="11"/>
-      <c r="H279" s="25"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="22"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -22640,13 +22762,13 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="11"/>
+      <c r="B280" s="2"/>
       <c r="C280" s="1"/>
-      <c r="D280" s="25"/>
-      <c r="E280" s="25"/>
-      <c r="F280" s="25"/>
-      <c r="G280" s="11"/>
-      <c r="H280" s="25"/>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="22"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -22657,13 +22779,13 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="11"/>
+      <c r="B281" s="2"/>
       <c r="C281" s="1"/>
-      <c r="D281" s="25"/>
-      <c r="E281" s="25"/>
-      <c r="F281" s="25"/>
-      <c r="G281" s="11"/>
-      <c r="H281" s="25"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="22"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -22674,13 +22796,13 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="11"/>
+      <c r="B282" s="2"/>
       <c r="C282" s="1"/>
-      <c r="D282" s="25"/>
-      <c r="E282" s="25"/>
-      <c r="F282" s="25"/>
-      <c r="G282" s="11"/>
-      <c r="H282" s="25"/>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="22"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -22691,13 +22813,13 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="11"/>
+      <c r="B283" s="2"/>
       <c r="C283" s="1"/>
-      <c r="D283" s="25"/>
-      <c r="E283" s="25"/>
-      <c r="F283" s="25"/>
-      <c r="G283" s="11"/>
-      <c r="H283" s="25"/>
+      <c r="D283" s="22"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="22"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -22708,13 +22830,13 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="11"/>
+      <c r="B284" s="2"/>
       <c r="C284" s="1"/>
-      <c r="D284" s="25"/>
-      <c r="E284" s="25"/>
-      <c r="F284" s="25"/>
-      <c r="G284" s="11"/>
-      <c r="H284" s="25"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="22"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -22725,13 +22847,13 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="11"/>
+      <c r="B285" s="2"/>
       <c r="C285" s="1"/>
-      <c r="D285" s="25"/>
-      <c r="E285" s="25"/>
-      <c r="F285" s="25"/>
-      <c r="G285" s="11"/>
-      <c r="H285" s="25"/>
+      <c r="D285" s="22"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="22"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -22742,13 +22864,13 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="11"/>
+      <c r="B286" s="2"/>
       <c r="C286" s="1"/>
-      <c r="D286" s="25"/>
-      <c r="E286" s="25"/>
-      <c r="F286" s="25"/>
-      <c r="G286" s="11"/>
-      <c r="H286" s="25"/>
+      <c r="D286" s="22"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="22"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -22759,13 +22881,13 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="11"/>
+      <c r="B287" s="2"/>
       <c r="C287" s="1"/>
-      <c r="D287" s="25"/>
-      <c r="E287" s="25"/>
-      <c r="F287" s="25"/>
-      <c r="G287" s="11"/>
-      <c r="H287" s="25"/>
+      <c r="D287" s="22"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="22"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -22776,13 +22898,13 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="11"/>
+      <c r="B288" s="2"/>
       <c r="C288" s="1"/>
-      <c r="D288" s="25"/>
-      <c r="E288" s="25"/>
-      <c r="F288" s="25"/>
-      <c r="G288" s="11"/>
-      <c r="H288" s="25"/>
+      <c r="D288" s="22"/>
+      <c r="E288" s="22"/>
+      <c r="F288" s="22"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="22"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -22793,13 +22915,13 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="11"/>
+      <c r="B289" s="2"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="25"/>
-      <c r="E289" s="25"/>
-      <c r="F289" s="25"/>
-      <c r="G289" s="11"/>
-      <c r="H289" s="25"/>
+      <c r="D289" s="22"/>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="22"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -22810,13 +22932,13 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="11"/>
+      <c r="B290" s="2"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="25"/>
-      <c r="E290" s="25"/>
-      <c r="F290" s="25"/>
-      <c r="G290" s="11"/>
-      <c r="H290" s="25"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="22"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -22827,13 +22949,13 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="11"/>
+      <c r="B291" s="2"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="25"/>
-      <c r="E291" s="25"/>
-      <c r="F291" s="25"/>
-      <c r="G291" s="11"/>
-      <c r="H291" s="25"/>
+      <c r="D291" s="22"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="22"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -22844,13 +22966,13 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="11"/>
+      <c r="B292" s="2"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="25"/>
-      <c r="E292" s="25"/>
-      <c r="F292" s="25"/>
-      <c r="G292" s="11"/>
-      <c r="H292" s="25"/>
+      <c r="D292" s="22"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="22"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -22861,13 +22983,13 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="11"/>
+      <c r="B293" s="2"/>
       <c r="C293" s="1"/>
-      <c r="D293" s="25"/>
-      <c r="E293" s="25"/>
-      <c r="F293" s="25"/>
-      <c r="G293" s="11"/>
-      <c r="H293" s="25"/>
+      <c r="D293" s="22"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="22"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -22878,13 +23000,13 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="11"/>
+      <c r="B294" s="2"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="25"/>
-      <c r="E294" s="25"/>
-      <c r="F294" s="25"/>
-      <c r="G294" s="11"/>
-      <c r="H294" s="25"/>
+      <c r="D294" s="22"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="22"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -22895,13 +23017,13 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="11"/>
+      <c r="B295" s="2"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="25"/>
-      <c r="E295" s="25"/>
-      <c r="F295" s="25"/>
-      <c r="G295" s="11"/>
-      <c r="H295" s="25"/>
+      <c r="D295" s="22"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="22"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -22912,13 +23034,13 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="11"/>
+      <c r="B296" s="2"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="25"/>
-      <c r="E296" s="25"/>
-      <c r="F296" s="25"/>
-      <c r="G296" s="11"/>
-      <c r="H296" s="25"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="22"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -22929,13 +23051,13 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="11"/>
+      <c r="B297" s="2"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="25"/>
-      <c r="E297" s="25"/>
-      <c r="F297" s="25"/>
-      <c r="G297" s="11"/>
-      <c r="H297" s="25"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="22"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -22946,13 +23068,13 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="11"/>
+      <c r="B298" s="2"/>
       <c r="C298" s="1"/>
-      <c r="D298" s="25"/>
-      <c r="E298" s="25"/>
-      <c r="F298" s="25"/>
-      <c r="G298" s="11"/>
-      <c r="H298" s="25"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="22"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -22963,13 +23085,13 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="11"/>
+      <c r="B299" s="2"/>
       <c r="C299" s="1"/>
-      <c r="D299" s="25"/>
-      <c r="E299" s="25"/>
-      <c r="F299" s="25"/>
-      <c r="G299" s="11"/>
-      <c r="H299" s="25"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="22"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -22980,13 +23102,13 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="11"/>
+      <c r="B300" s="2"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="25"/>
-      <c r="E300" s="25"/>
-      <c r="F300" s="25"/>
-      <c r="G300" s="11"/>
-      <c r="H300" s="25"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="22"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -22996,7 +23118,7 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:A17"/>
@@ -23004,7 +23126,8 @@
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D24:D25"/>
@@ -23037,1016 +23160,1016 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="18"/>
-    <col min="2" max="2" width="27.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="15"/>
+    <col min="2" max="2" width="27.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>178</v>
+      <c r="C1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="2">
         <v>51</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>43087</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>179</v>
+      <c r="D2" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11">
+      <c r="A3" s="2">
         <v>52</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>43092</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>179</v>
+      <c r="D3" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="A4" s="2"/>
+      <c r="B4" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="20">
         <v>43098</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:7">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="E5" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="23">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="29" t="s">
         <v>188</v>
       </c>
+      <c r="G5" s="26" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="20">
         <v>43123</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43123</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="20">
+        <v>43137</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="23">
-        <v>43123</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="G8" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:7">
+      <c r="A9" s="2">
+        <v>13</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43189</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="30" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="20">
+        <v>43194</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="23">
-        <v>43137</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="11">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="23">
-        <v>43189</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="11">
-        <v>14</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="23">
-        <v>43194</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>193</v>
+      <c r="G10" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>43203</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>179</v>
+      <c r="D11" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="2">
         <v>16</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>43206</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>179</v>
+      <c r="D12" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>43207</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>179</v>
+      <c r="D13" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="20">
         <v>43209</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>196</v>
+      <c r="D14" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="20">
         <v>43209</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>179</v>
+      <c r="D15" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="20">
         <v>43211</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>179</v>
+      <c r="D16" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11">
+      <c r="A17" s="2">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>43236</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>201</v>
+      <c r="D17" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11">
+      <c r="A18" s="2">
         <v>22</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="12">
         <v>43249</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>179</v>
+      <c r="D18" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
       <c r="A22" s="9"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="9"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="23"/>
     </row>
     <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="8"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="24"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="24"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="8"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="24"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="12"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" ht="14.25" spans="1:7">
       <c r="A52" s="9"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="26"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" ht="14.25" spans="1:7">
       <c r="A53" s="8"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" ht="14.25" spans="1:7">
       <c r="A54" s="8"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" ht="14.25" spans="1:7">
       <c r="A55" s="8"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="36"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="24"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="24"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="21"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="24"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="12"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" ht="14.25" spans="1:7">
       <c r="A64" s="9"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="26"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" ht="14.25" spans="1:7">
       <c r="A65" s="8"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="11"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" ht="14.25" spans="1:7">
       <c r="A66" s="8"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="34"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="11"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" ht="14.25" spans="1:7">
       <c r="A67" s="8"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="36"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="21"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="24"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="24"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="24"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="24"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="12"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" ht="14.25" spans="1:7">
       <c r="A76" s="8"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="34"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="11"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" ht="14.25" spans="1:7">
       <c r="A77" s="8"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="36"/>
+      <c r="G77" s="33"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="24"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="24"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="24"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="12"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -24080,10 +24203,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -24100,16 +24223,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -24122,11 +24245,11 @@
       <c r="C2" s="10">
         <v>43084</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>210</v>
+      <c r="D2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24135,11 +24258,11 @@
       <c r="C3" s="10">
         <v>43091</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>210</v>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24148,24 +24271,24 @@
       <c r="C4" s="10">
         <v>43099</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>213</v>
+      <c r="D4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="10">
         <v>43100</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>210</v>
+      <c r="D5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24178,249 +24301,276 @@
       <c r="C6" s="10">
         <v>43101</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>210</v>
+      <c r="D6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="10">
         <v>43120</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>213</v>
+      <c r="D7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="10">
         <v>43163</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>213</v>
+      <c r="D8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="10">
         <v>43197</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>210</v>
+      <c r="D9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="10">
         <v>43204</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>213</v>
+      <c r="D10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="10">
         <v>43211</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>213</v>
+      <c r="D11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="10">
         <v>43220</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>210</v>
+      <c r="D12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="10">
         <v>43221</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>210</v>
+      <c r="D13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="10">
         <v>43225</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>43246</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>221</v>
+      <c r="D15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>43247</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>221</v>
+      <c r="D16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>43261</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="D17" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>43267</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>224</v>
+      <c r="D18" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>43268</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>223</v>
+      <c r="D19" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>43269</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>225</v>
+      <c r="D20" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="12">
         <v>43274</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="12">
         <v>43275</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43287</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43288</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
